--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.68303966666667</v>
+        <v>16.276826</v>
       </c>
       <c r="H2">
-        <v>35.049119</v>
+        <v>48.830478</v>
       </c>
       <c r="I2">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389726</v>
       </c>
       <c r="J2">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389725</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>78.79902212354122</v>
+        <v>102.639158124796</v>
       </c>
       <c r="R2">
-        <v>709.1911991118711</v>
+        <v>923.752423123164</v>
       </c>
       <c r="S2">
-        <v>0.001685564295864711</v>
+        <v>0.002849879534677348</v>
       </c>
       <c r="T2">
-        <v>0.001685564295864712</v>
+        <v>0.002849879534677347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.68303966666667</v>
+        <v>16.276826</v>
       </c>
       <c r="H3">
-        <v>35.049119</v>
+        <v>48.830478</v>
       </c>
       <c r="I3">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389726</v>
       </c>
       <c r="J3">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389725</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>2132.524885123733</v>
+        <v>2971.036432826941</v>
       </c>
       <c r="R3">
-        <v>19192.7239661136</v>
+        <v>26739.32789544247</v>
       </c>
       <c r="S3">
-        <v>0.04561614737771853</v>
+        <v>0.08249381699330961</v>
       </c>
       <c r="T3">
-        <v>0.04561614737771854</v>
+        <v>0.08249381699330958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.68303966666667</v>
+        <v>16.276826</v>
       </c>
       <c r="H4">
-        <v>35.049119</v>
+        <v>48.830478</v>
       </c>
       <c r="I4">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389726</v>
       </c>
       <c r="J4">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>2910.629720428602</v>
+        <v>2073.608921888618</v>
       </c>
       <c r="R4">
-        <v>26195.66748385742</v>
+        <v>18662.48029699756</v>
       </c>
       <c r="S4">
-        <v>0.06226033525575254</v>
+        <v>0.05757583886482678</v>
       </c>
       <c r="T4">
-        <v>0.06226033525575255</v>
+        <v>0.05757583886482677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.68303966666667</v>
+        <v>16.276826</v>
       </c>
       <c r="H5">
-        <v>35.049119</v>
+        <v>48.830478</v>
       </c>
       <c r="I5">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389726</v>
       </c>
       <c r="J5">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389725</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>203.9910286948396</v>
+        <v>316.1610899264347</v>
       </c>
       <c r="R5">
-        <v>1835.919258253557</v>
+        <v>2845.449809337912</v>
       </c>
       <c r="S5">
-        <v>0.004363505858050657</v>
+        <v>0.00877853088727701</v>
       </c>
       <c r="T5">
-        <v>0.004363505858050658</v>
+        <v>0.008778530887277007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.68303966666667</v>
+        <v>16.276826</v>
       </c>
       <c r="H6">
-        <v>35.049119</v>
+        <v>48.830478</v>
       </c>
       <c r="I6">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389726</v>
       </c>
       <c r="J6">
-        <v>0.1606411468949699</v>
+        <v>0.2101447818389725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>2183.923296565425</v>
+        <v>2104.973774199274</v>
       </c>
       <c r="R6">
-        <v>19655.30966908882</v>
+        <v>18944.76396779346</v>
       </c>
       <c r="S6">
-        <v>0.04671559410758344</v>
+        <v>0.05844671555888183</v>
       </c>
       <c r="T6">
-        <v>0.04671559410758344</v>
+        <v>0.0584467155588818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>166.858356</v>
       </c>
       <c r="I7">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526918</v>
       </c>
       <c r="J7">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>375.1385387444893</v>
+        <v>350.727698916392</v>
       </c>
       <c r="R7">
-        <v>3376.246848700404</v>
+        <v>3156.549290247528</v>
       </c>
       <c r="S7">
-        <v>0.008024466673193221</v>
+        <v>0.009738307578195471</v>
       </c>
       <c r="T7">
-        <v>0.008024466673193223</v>
+        <v>0.009738307578195467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>166.858356</v>
       </c>
       <c r="I8">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526918</v>
       </c>
       <c r="J8">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>10152.31214401808</v>
@@ -948,10 +948,10 @@
         <v>91370.80929616274</v>
       </c>
       <c r="S8">
-        <v>0.217164812573458</v>
+        <v>0.2818891652805141</v>
       </c>
       <c r="T8">
-        <v>0.217164812573458</v>
+        <v>0.281889165280514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>166.858356</v>
       </c>
       <c r="I9">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526918</v>
       </c>
       <c r="J9">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>13856.63617038295</v>
+        <v>7085.717565436637</v>
       </c>
       <c r="R9">
-        <v>124709.7255334465</v>
+        <v>63771.45808892974</v>
       </c>
       <c r="S9">
-        <v>0.2964028050115528</v>
+        <v>0.1967420801882362</v>
       </c>
       <c r="T9">
-        <v>0.2964028050115528</v>
+        <v>0.1967420801882362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>166.858356</v>
       </c>
       <c r="I10">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526918</v>
       </c>
       <c r="J10">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526917</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>971.1401786381495</v>
+        <v>1080.352309807269</v>
       </c>
       <c r="R10">
-        <v>8740.261607743345</v>
+        <v>9723.170788265425</v>
       </c>
       <c r="S10">
-        <v>0.02077334422787351</v>
+        <v>0.02999706928828882</v>
       </c>
       <c r="T10">
-        <v>0.02077334422787352</v>
+        <v>0.02999706928828882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>166.858356</v>
       </c>
       <c r="I11">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526918</v>
       </c>
       <c r="J11">
-        <v>0.7647643775824773</v>
+        <v>0.7180845704526917</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>10397.00458362469</v>
+        <v>7192.894228600548</v>
       </c>
       <c r="R11">
-        <v>93573.04125262222</v>
+        <v>64736.04805740493</v>
       </c>
       <c r="S11">
-        <v>0.2223989490963998</v>
+        <v>0.1997179481174574</v>
       </c>
       <c r="T11">
-        <v>0.2223989490963998</v>
+        <v>0.1997179481174573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1284933333333333</v>
+        <v>0.1140753333333333</v>
       </c>
       <c r="H12">
-        <v>0.38548</v>
+        <v>0.342226</v>
       </c>
       <c r="I12">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190936</v>
       </c>
       <c r="J12">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190935</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>0.8666536539244443</v>
+        <v>0.7193414843986665</v>
       </c>
       <c r="R12">
-        <v>7.79988288532</v>
+        <v>6.474073359588</v>
       </c>
       <c r="S12">
-        <v>1.853830690494471E-05</v>
+        <v>1.997324035276677E-05</v>
       </c>
       <c r="T12">
-        <v>1.853830690494471E-05</v>
+        <v>1.997324035276676E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1284933333333333</v>
+        <v>0.1140753333333333</v>
       </c>
       <c r="H13">
-        <v>0.38548</v>
+        <v>0.342226</v>
       </c>
       <c r="I13">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190936</v>
       </c>
       <c r="J13">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190935</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>23.45410430195111</v>
+        <v>20.82236250606911</v>
       </c>
       <c r="R13">
-        <v>211.08693871756</v>
+        <v>187.401262554622</v>
       </c>
       <c r="S13">
-        <v>0.0005016991294749215</v>
+        <v>0.000578153853303512</v>
       </c>
       <c r="T13">
-        <v>0.0005016991294749217</v>
+        <v>0.0005781538533035119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1284933333333333</v>
+        <v>0.1140753333333333</v>
       </c>
       <c r="H14">
-        <v>0.38548</v>
+        <v>0.342226</v>
       </c>
       <c r="I14">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190936</v>
       </c>
       <c r="J14">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>32.01191860573778</v>
+        <v>14.53278599693933</v>
       </c>
       <c r="R14">
-        <v>288.10726745164</v>
+        <v>130.795073972454</v>
       </c>
       <c r="S14">
-        <v>0.0006847565564882668</v>
+        <v>0.0004035174308831097</v>
       </c>
       <c r="T14">
-        <v>0.0006847565564882669</v>
+        <v>0.0004035174308831096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1284933333333333</v>
+        <v>0.1140753333333333</v>
       </c>
       <c r="H15">
-        <v>0.38548</v>
+        <v>0.342226</v>
       </c>
       <c r="I15">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190936</v>
       </c>
       <c r="J15">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>2.243550308391111</v>
+        <v>2.215799426767111</v>
       </c>
       <c r="R15">
-        <v>20.19195277552</v>
+        <v>19.942194840904</v>
       </c>
       <c r="S15">
-        <v>4.799105615640059E-05</v>
+        <v>6.152390135171852E-05</v>
       </c>
       <c r="T15">
-        <v>4.799105615640059E-05</v>
+        <v>6.152390135171851E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1284933333333333</v>
+        <v>0.1140753333333333</v>
       </c>
       <c r="H16">
-        <v>0.38548</v>
+        <v>0.342226</v>
       </c>
       <c r="I16">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190936</v>
       </c>
       <c r="J16">
-        <v>0.001766776200710579</v>
+        <v>0.001472789353190935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>24.01939838659111</v>
+        <v>14.75260501953556</v>
       </c>
       <c r="R16">
-        <v>216.17458547932</v>
+        <v>132.77344517582</v>
       </c>
       <c r="S16">
-        <v>0.0005137911516860455</v>
+        <v>0.0004096209272998288</v>
       </c>
       <c r="T16">
-        <v>0.0005137911516860455</v>
+        <v>0.0004096209272998286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.103549999999999</v>
+        <v>5.236870333333333</v>
       </c>
       <c r="H17">
-        <v>15.31065</v>
+        <v>15.710611</v>
       </c>
       <c r="I17">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="J17">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>34.42209911398333</v>
+        <v>33.02289784396866</v>
       </c>
       <c r="R17">
-        <v>309.79889202585</v>
+        <v>297.206080595718</v>
       </c>
       <c r="S17">
-        <v>0.0007363119451442142</v>
+        <v>0.0009169139971592498</v>
       </c>
       <c r="T17">
-        <v>0.0007363119451442143</v>
+        <v>0.0009169139971592497</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.103549999999999</v>
+        <v>5.236870333333333</v>
       </c>
       <c r="H18">
-        <v>15.31065</v>
+        <v>15.710611</v>
       </c>
       <c r="I18">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="J18">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>931.5595673722833</v>
+        <v>955.8947521048575</v>
       </c>
       <c r="R18">
-        <v>8384.03610635055</v>
+        <v>8603.052768943717</v>
       </c>
       <c r="S18">
-        <v>0.01992668822427936</v>
+        <v>0.02654137992847575</v>
       </c>
       <c r="T18">
-        <v>0.01992668822427936</v>
+        <v>0.02654137992847575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.103549999999999</v>
+        <v>5.236870333333333</v>
       </c>
       <c r="H19">
-        <v>15.31065</v>
+        <v>15.710611</v>
       </c>
       <c r="I19">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="J19">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>1271.462284945883</v>
+        <v>667.1583910753743</v>
       </c>
       <c r="R19">
-        <v>11443.16056451295</v>
+        <v>6004.42551967837</v>
       </c>
       <c r="S19">
-        <v>0.02719743688802813</v>
+        <v>0.01852432424282177</v>
       </c>
       <c r="T19">
-        <v>0.02719743688802813</v>
+        <v>0.01852432424282177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.103549999999999</v>
+        <v>5.236870333333333</v>
       </c>
       <c r="H20">
-        <v>15.31065</v>
+        <v>15.710611</v>
       </c>
       <c r="I20">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="J20">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>89.11023536673333</v>
+        <v>101.7209763371604</v>
       </c>
       <c r="R20">
-        <v>801.9921183006001</v>
+        <v>915.488787034444</v>
       </c>
       <c r="S20">
-        <v>0.001906128110254733</v>
+        <v>0.002824385293166574</v>
       </c>
       <c r="T20">
-        <v>0.001906128110254734</v>
+        <v>0.002824385293166573</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.103549999999999</v>
+        <v>5.236870333333333</v>
       </c>
       <c r="H21">
-        <v>15.31065</v>
+        <v>15.710611</v>
       </c>
       <c r="I21">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="J21">
-        <v>0.07017352920361479</v>
+        <v>0.06761152166382565</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>954.0121456564833</v>
+        <v>677.2496499347523</v>
       </c>
       <c r="R21">
-        <v>8586.10931090835</v>
+        <v>6095.246849412771</v>
       </c>
       <c r="S21">
-        <v>0.02040696403590836</v>
+        <v>0.01880451820220232</v>
       </c>
       <c r="T21">
-        <v>0.02040696403590836</v>
+        <v>0.01880451820220231</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1930313333333333</v>
+        <v>0.208071</v>
       </c>
       <c r="H22">
-        <v>0.579094</v>
+        <v>0.624213</v>
       </c>
       <c r="I22">
-        <v>0.002654170118227385</v>
+        <v>0.00268633669131911</v>
       </c>
       <c r="J22">
-        <v>0.002654170118227385</v>
+        <v>0.002686336691319109</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>1.301945447405111</v>
+        <v>1.312063683066</v>
       </c>
       <c r="R22">
-        <v>11.717509026646</v>
+        <v>11.808573147594</v>
       </c>
       <c r="S22">
-        <v>2.784949231818007E-05</v>
+        <v>3.643076879115439E-05</v>
       </c>
       <c r="T22">
-        <v>2.784949231818007E-05</v>
+        <v>3.643076879115438E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1930313333333333</v>
+        <v>0.208071</v>
       </c>
       <c r="H23">
-        <v>0.579094</v>
+        <v>0.624213</v>
       </c>
       <c r="I23">
-        <v>0.002654170118227385</v>
+        <v>0.00268633669131911</v>
       </c>
       <c r="J23">
-        <v>0.002654170118227385</v>
+        <v>0.002686336691319109</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>35.23433401637978</v>
+        <v>37.979549674779</v>
       </c>
       <c r="R23">
-        <v>317.109006147418</v>
+        <v>341.815947073011</v>
       </c>
       <c r="S23">
-        <v>0.0007536861982052254</v>
+        <v>0.001054540424258079</v>
       </c>
       <c r="T23">
-        <v>0.0007536861982052255</v>
+        <v>0.001054540424258078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1930313333333333</v>
+        <v>0.208071</v>
       </c>
       <c r="H24">
-        <v>0.579094</v>
+        <v>0.624213</v>
       </c>
       <c r="I24">
-        <v>0.002654170118227385</v>
+        <v>0.00268633669131911</v>
       </c>
       <c r="J24">
-        <v>0.002654170118227385</v>
+        <v>0.002686336691319109</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>48.09045863098245</v>
+        <v>26.507494887903</v>
       </c>
       <c r="R24">
-        <v>432.814127678842</v>
+        <v>238.567453991127</v>
       </c>
       <c r="S24">
-        <v>0.001028687385397469</v>
+        <v>0.0007360072761386879</v>
       </c>
       <c r="T24">
-        <v>0.001028687385397469</v>
+        <v>0.0007360072761386877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1930313333333333</v>
+        <v>0.208071</v>
       </c>
       <c r="H25">
-        <v>0.579094</v>
+        <v>0.624213</v>
       </c>
       <c r="I25">
-        <v>0.002654170118227385</v>
+        <v>0.00268633669131911</v>
       </c>
       <c r="J25">
-        <v>0.002654170118227385</v>
+        <v>0.002686336691319109</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>3.370412271161778</v>
+        <v>4.041571381428</v>
       </c>
       <c r="R25">
-        <v>30.333710440456</v>
+        <v>36.374142432852</v>
       </c>
       <c r="S25">
-        <v>7.209539450512256E-05</v>
+        <v>0.0001122182973662442</v>
       </c>
       <c r="T25">
-        <v>7.209539450512257E-05</v>
+        <v>0.0001122182973662441</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1930313333333333</v>
+        <v>0.208071</v>
       </c>
       <c r="H26">
-        <v>0.579094</v>
+        <v>0.624213</v>
       </c>
       <c r="I26">
-        <v>0.002654170118227385</v>
+        <v>0.00268633669131911</v>
       </c>
       <c r="J26">
-        <v>0.002654170118227385</v>
+        <v>0.002686336691319109</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>36.08355683637178</v>
+        <v>26.90844014499</v>
       </c>
       <c r="R26">
-        <v>324.752011527346</v>
+        <v>242.17596130491</v>
       </c>
       <c r="S26">
-        <v>0.0007718516478013876</v>
+        <v>0.000747139924764945</v>
       </c>
       <c r="T26">
-        <v>0.0007718516478013876</v>
+        <v>0.0007471399247649447</v>
       </c>
     </row>
   </sheetData>
